--- a/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_local_beam_search.xlsx
+++ b/Reportes/Reporte_Data_80_Salidas_composición_zonas_heterogéneas.xlsx_local_beam_search.xlsx
@@ -282,241 +282,241 @@
     <t>Pedido_80</t>
   </si>
   <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
     <t>S001</t>
   </si>
   <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S066</t>
-  </si>
-  <si>
     <t>S065</t>
   </si>
   <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S069</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S074</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S073</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
     <t>S018</t>
   </si>
   <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S071</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S076</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S067</t>
-  </si>
-  <si>
-    <t>S072</t>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S019</t>
   </si>
   <si>
     <t>S023</t>
   </si>
   <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S068</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S077</t>
-  </si>
-  <si>
-    <t>S070</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S078</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S075</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S079</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S011</t>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S020</t>
   </si>
   <si>
     <t>S041</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S061</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>S062</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S080</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S063</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S064</t>
   </si>
   <si>
     <t>S024</t>
